--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1067,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1160,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1760,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1795,28 +1807,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1853,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2268,10 +2280,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2315,28 +2327,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2361,28 +2373,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2586,10 +2598,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2633,28 +2645,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2679,28 +2691,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2875,10 +2887,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2922,28 +2934,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2968,28 +2980,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3106,10 +3118,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3153,28 +3165,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3199,28 +3211,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3279,10 +3291,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3326,28 +3338,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3372,28 +3384,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3452,10 +3464,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3499,28 +3511,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3545,28 +3557,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3666,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3713,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3759,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3914,10 +3926,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3961,28 +3973,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4007,28 +4019,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4174,10 +4186,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4221,28 +4233,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4267,28 +4279,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4376,10 +4388,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4423,28 +4435,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4469,28 +4481,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4636,10 +4648,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4683,28 +4695,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4729,28 +4741,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4809,10 +4821,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4856,28 +4868,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4902,28 +4914,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5011,10 +5023,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5058,28 +5070,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5104,28 +5116,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5184,10 +5196,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5231,28 +5243,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5277,28 +5289,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5415,10 +5427,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5462,28 +5474,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5508,28 +5520,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5617,10 +5629,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5664,28 +5676,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5710,28 +5722,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5819,10 +5831,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5866,28 +5878,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5912,28 +5924,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6021,10 +6033,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6068,28 +6080,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6114,28 +6126,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6194,10 +6206,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6241,28 +6253,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6287,28 +6299,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6379,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6414,28 +6426,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6472,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6569,10 +6581,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6616,28 +6628,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6662,28 +6674,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6771,10 +6783,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6818,28 +6830,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6864,28 +6876,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6944,10 +6956,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6991,28 +7003,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7037,28 +7049,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7175,10 +7187,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7222,28 +7234,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7268,28 +7280,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7406,10 +7418,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7453,28 +7465,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7499,28 +7511,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7666,10 +7678,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7713,28 +7725,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7759,28 +7771,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7839,10 +7851,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7886,28 +7898,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7932,28 +7944,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8012,10 +8024,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8059,28 +8071,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8105,28 +8117,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8214,10 +8226,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8261,28 +8273,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8307,28 +8319,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8387,10 +8399,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8184" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -431,10 +479,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="4">
+      <c r="A12" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="4">
+      <c r="C12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -524,28 +572,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="4">
+      <c r="I14" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -778,10 +826,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -825,28 +873,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="4">
+      <c r="A24" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="4">
+      <c r="C24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -871,28 +919,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="4">
+      <c r="I26" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1067,10 +1115,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1114,28 +1162,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="4">
+      <c r="C34" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1160,28 +1208,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="4">
+      <c r="I36" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1298,10 +1346,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="J40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1345,28 +1393,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="4">
+      <c r="C42" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1391,28 +1439,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="4">
+      <c r="I44" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1529,10 +1577,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1576,28 +1624,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1622,28 +1670,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1760,10 +1808,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1807,28 +1855,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="4">
+      <c r="C58" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1853,28 +1901,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="4">
+      <c r="I60" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2020,10 +2068,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="4" t="s">
+      <c r="J65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2067,28 +2115,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="4">
+      <c r="A67" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="4">
+      <c r="C67" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2113,28 +2161,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D69" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="4">
+      <c r="I69" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2280,10 +2328,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="J74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2327,28 +2375,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="4">
+      <c r="C76" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2373,28 +2421,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2598,10 +2646,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="J85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2645,28 +2693,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="4">
+      <c r="C87" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2691,28 +2739,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="4">
+      <c r="I89" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2887,10 +2935,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="J95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2934,28 +2982,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="4">
+      <c r="C97" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2980,28 +3028,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3118,10 +3166,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="4" t="s">
+      <c r="J103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3165,28 +3213,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="4">
+      <c r="A105" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="4">
+      <c r="C105" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3211,28 +3259,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="4">
+      <c r="I107" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3291,10 +3339,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="4" t="s">
+      <c r="J109" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3338,28 +3386,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="4">
+      <c r="A111" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="4">
+      <c r="C111" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3384,28 +3432,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="4">
+      <c r="C113" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="4">
+      <c r="D113" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="4">
+      <c r="I113" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3464,10 +3512,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="4" t="s">
+      <c r="J115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3511,28 +3559,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="4">
+      <c r="C117" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3557,28 +3605,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="4">
+      <c r="I119" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3666,10 +3714,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="4" t="s">
+      <c r="J122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3713,28 +3761,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="4">
+      <c r="C124" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3759,28 +3807,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="4">
+      <c r="C126" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="4">
+      <c r="D126" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="4">
+      <c r="I126" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3926,10 +3974,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="4" t="s">
+      <c r="J131" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3973,28 +4021,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="4">
+      <c r="A133" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="4">
+      <c r="C133" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4019,28 +4067,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="4">
+      <c r="I135" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4186,10 +4234,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="4" t="s">
+      <c r="J140" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4233,28 +4281,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="4">
+      <c r="A142" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="4">
+      <c r="C142" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4279,28 +4327,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="4">
+      <c r="D144" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="4">
+      <c r="I144" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4388,10 +4436,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="4" t="s">
+      <c r="J147" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4435,28 +4483,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="4">
+      <c r="A149" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="4">
+      <c r="C149" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4481,28 +4529,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="4">
+      <c r="I151" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4648,10 +4696,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4695,28 +4743,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="4">
+      <c r="C158" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4741,28 +4789,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4821,10 +4869,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4868,28 +4916,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4914,28 +4962,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5023,10 +5071,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="4" t="s">
+      <c r="J169" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5070,28 +5118,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="4">
+      <c r="A171" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="4">
+      <c r="C171" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="4">
+      <c r="E171" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="4">
+      <c r="F171" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="4">
+      <c r="G171" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="4">
+      <c r="H171" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5116,28 +5164,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="4">
+      <c r="I173" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5196,10 +5244,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="4" t="s">
+      <c r="J175" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5243,28 +5291,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="4">
+      <c r="A177" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="4">
+      <c r="C177" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5289,28 +5337,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="4">
+      <c r="B179" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="4">
+      <c r="C179" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="4">
+      <c r="D179" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="4">
+      <c r="E179" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="4">
+      <c r="F179" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="4">
+      <c r="G179" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="4">
+      <c r="H179" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="4">
+      <c r="I179" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5427,10 +5475,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="4" t="s">
+      <c r="J183" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5474,28 +5522,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="4">
+      <c r="A185" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="4">
+      <c r="C185" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5520,28 +5568,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="4">
+      <c r="C187" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="4">
+      <c r="D187" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="4">
+      <c r="I187" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5629,10 +5677,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="4" t="s">
+      <c r="J190" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5676,28 +5724,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="4">
+      <c r="A192" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="4">
+      <c r="C192" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5722,28 +5770,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="4">
+      <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="4">
+      <c r="D194" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="4">
+      <c r="I194" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5831,10 +5879,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="4" t="s">
+      <c r="J197" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5878,28 +5926,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="4">
+      <c r="A199" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="4">
+      <c r="C199" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5924,28 +5972,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="4">
+      <c r="C201" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="4">
+      <c r="D201" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="4">
+      <c r="I201" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6033,10 +6081,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="4" t="s">
+      <c r="J204" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6080,28 +6128,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="4">
+      <c r="C206" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6126,28 +6174,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="4">
+      <c r="C208" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="4">
+      <c r="D208" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="4">
+      <c r="G208" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="4">
+      <c r="H208" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="4">
+      <c r="I208" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6206,10 +6254,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6253,28 +6301,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6299,28 +6347,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6379,10 +6427,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="4" t="s">
+      <c r="J216" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6426,28 +6474,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="4">
+      <c r="C218" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6472,28 +6520,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="4">
+      <c r="C220" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="4">
+      <c r="D220" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="4">
+      <c r="I220" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6581,10 +6629,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6628,28 +6676,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6674,28 +6722,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6783,10 +6831,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="4" t="s">
+      <c r="J230" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6830,28 +6878,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="4">
+      <c r="A232" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="4">
+      <c r="C232" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="4">
+      <c r="G232" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="4">
+      <c r="H232" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6876,28 +6924,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="4">
+      <c r="C234" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="4">
+      <c r="D234" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="4">
+      <c r="I234" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6956,10 +7004,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="4" t="s">
+      <c r="J236" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7003,28 +7051,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="4">
+      <c r="A238" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="4">
+      <c r="C238" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7049,28 +7097,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="4">
+      <c r="C240" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="4">
+      <c r="D240" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="4">
+      <c r="I240" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7187,10 +7235,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="4" t="s">
+      <c r="J244" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7234,28 +7282,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="4">
+      <c r="A246" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="4">
+      <c r="C246" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7280,28 +7328,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="4">
+      <c r="C248" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="4">
+      <c r="D248" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="4">
+      <c r="I248" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7418,10 +7466,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="4" t="s">
+      <c r="J252" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7465,28 +7513,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="4">
+      <c r="A254" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="4">
+      <c r="C254" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7511,28 +7559,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="4">
+      <c r="C256" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="4">
+      <c r="D256" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="4">
+      <c r="I256" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7678,10 +7726,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="4" t="s">
+      <c r="J261" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7725,28 +7773,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="4">
+      <c r="A263" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="4">
+      <c r="B263" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="4">
+      <c r="C263" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="4">
+      <c r="E263" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="4">
+      <c r="F263" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="4">
+      <c r="G263" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="4">
+      <c r="H263" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7771,28 +7819,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="4">
+      <c r="C265" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="4">
+      <c r="D265" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="4">
+      <c r="I265" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7851,10 +7899,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="4" t="s">
+      <c r="J267" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7898,28 +7946,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="4">
+      <c r="A269" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="4">
+      <c r="C269" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="4">
+      <c r="G269" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="4">
+      <c r="H269" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7944,28 +7992,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="4">
+      <c r="C271" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="4">
+      <c r="D271" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="4">
+      <c r="I271" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8024,10 +8072,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="4" t="s">
+      <c r="J273" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8071,28 +8119,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="4">
+      <c r="A275" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="4">
+      <c r="B275" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="4">
+      <c r="C275" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="4">
+      <c r="E275" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="4">
+      <c r="F275" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="4">
+      <c r="G275" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="4">
+      <c r="H275" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8117,28 +8165,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="4">
+      <c r="C277" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="4">
+      <c r="D277" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="4">
+      <c r="I277" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8226,10 +8274,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="J280" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8273,28 +8321,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="4">
+      <c r="A282" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="4">
+      <c r="C282" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8319,28 +8367,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="4">
+      <c r="C284" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="4">
+      <c r="D284" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="4">
+      <c r="I284" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8399,10 +8447,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="4" t="s">
+      <c r="J286" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10230" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -479,10 +497,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -526,28 +544,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="12">
+      <c r="C12" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -572,28 +590,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F14" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="12">
+      <c r="I14" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -826,10 +844,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -873,28 +891,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="12">
+      <c r="A24" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="12">
+      <c r="C24" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -919,28 +937,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1115,10 +1133,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1162,28 +1180,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="12">
+      <c r="C34" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1208,28 +1226,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1346,10 +1364,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="12" t="s">
+      <c r="J40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1393,28 +1411,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="12">
+      <c r="A42" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="12">
+      <c r="C42" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1439,28 +1457,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="12">
+      <c r="I44" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1577,10 +1595,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1624,28 +1642,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1670,28 +1688,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1808,10 +1826,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="J56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1855,28 +1873,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="12">
+      <c r="A58" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="12">
+      <c r="C58" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1901,28 +1919,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2068,10 +2086,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="12" t="s">
+      <c r="J65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2115,28 +2133,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="12">
+      <c r="A67" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="12">
+      <c r="C67" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2161,28 +2179,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="12">
+      <c r="C69" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="12">
+      <c r="D69" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="12">
+      <c r="I69" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2328,10 +2346,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="12" t="s">
+      <c r="J74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2375,28 +2393,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="12">
+      <c r="C76" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2421,28 +2439,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2646,10 +2664,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="J85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2693,28 +2711,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="12">
+      <c r="A87" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="12">
+      <c r="C87" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2739,28 +2757,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="12">
+      <c r="I89" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2935,10 +2953,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="J95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2982,28 +3000,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="12">
+      <c r="C97" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3028,28 +3046,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3166,10 +3184,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="12" t="s">
+      <c r="J103" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3213,28 +3231,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="12">
+      <c r="A105" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="12">
+      <c r="C105" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3259,28 +3277,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="12">
+      <c r="I107" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3339,10 +3357,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="12" t="s">
+      <c r="J109" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3386,28 +3404,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="12">
+      <c r="A111" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="12">
+      <c r="C111" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3432,28 +3450,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="12">
+      <c r="C113" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="12">
+      <c r="D113" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="12">
+      <c r="I113" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3530,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="12" t="s">
+      <c r="J115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3559,28 +3577,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="A117" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="12">
+      <c r="C117" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3623,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="12">
+      <c r="I119" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3732,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="12" t="s">
+      <c r="J122" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3761,28 +3779,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="12">
+      <c r="A124" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="12">
+      <c r="C124" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3825,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="12">
+      <c r="C126" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="12">
+      <c r="D126" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="12">
+      <c r="I126" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3974,10 +3992,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="12" t="s">
+      <c r="J131" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -4021,28 +4039,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="12">
+      <c r="A133" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="12">
+      <c r="C133" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4067,28 +4085,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="12">
+      <c r="I135" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4234,10 +4252,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="12" t="s">
+      <c r="J140" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4281,28 +4299,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="12">
+      <c r="A142" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="12">
+      <c r="C142" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4327,28 +4345,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C144" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D144" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="12">
+      <c r="I144" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4436,10 +4454,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="12" t="s">
+      <c r="J147" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4483,28 +4501,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="12">
+      <c r="A149" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="12">
+      <c r="C149" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4529,28 +4547,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="12">
+      <c r="I151" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4696,10 +4714,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="12" t="s">
+      <c r="J156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4743,28 +4761,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="12">
+      <c r="C158" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4789,28 +4807,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4869,10 +4887,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4916,28 +4934,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4962,28 +4980,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5071,10 +5089,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="12" t="s">
+      <c r="J169" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5118,28 +5136,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="12">
+      <c r="A171" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="12">
+      <c r="B171" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="12">
+      <c r="C171" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="12">
+      <c r="E171" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="12">
+      <c r="F171" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="12">
+      <c r="G171" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="12">
+      <c r="H171" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5164,28 +5182,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="12">
+      <c r="I173" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5262,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="12" t="s">
+      <c r="J175" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5291,28 +5309,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="12">
+      <c r="A177" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="12">
+      <c r="C177" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5355,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="12">
+      <c r="B179" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="12">
+      <c r="C179" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="12">
+      <c r="D179" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="12">
+      <c r="E179" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="12">
+      <c r="F179" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="12">
+      <c r="G179" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="12">
+      <c r="H179" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="12">
+      <c r="I179" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5475,10 +5493,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="12" t="s">
+      <c r="J183" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5522,28 +5540,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="12">
+      <c r="A185" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="12">
+      <c r="C185" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5568,28 +5586,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="12">
+      <c r="C187" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="12">
+      <c r="D187" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="12">
+      <c r="I187" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5677,10 +5695,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="12" t="s">
+      <c r="J190" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5724,28 +5742,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="12">
+      <c r="A192" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="12">
+      <c r="C192" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5770,28 +5788,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="12">
+      <c r="C194" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="12">
+      <c r="D194" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="12">
+      <c r="I194" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5879,10 +5897,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="12" t="s">
+      <c r="J197" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5926,28 +5944,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="12">
+      <c r="A199" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="12">
+      <c r="C199" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5972,28 +5990,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="12">
+      <c r="C201" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="12">
+      <c r="D201" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="12">
+      <c r="I201" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6081,10 +6099,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="12" t="s">
+      <c r="J204" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6128,28 +6146,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="12">
+      <c r="A206" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="12">
+      <c r="C206" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6174,28 +6192,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="12">
+      <c r="B208" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="12">
+      <c r="C208" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="12">
+      <c r="D208" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="12">
+      <c r="E208" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="12">
+      <c r="F208" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="12">
+      <c r="G208" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="12">
+      <c r="H208" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="12">
+      <c r="I208" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6254,10 +6272,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6301,28 +6319,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6347,28 +6365,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6427,10 +6445,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="12" t="s">
+      <c r="J216" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6474,28 +6492,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="12">
+      <c r="A218" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="12">
+      <c r="C218" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6520,28 +6538,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="12">
+      <c r="C220" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="12">
+      <c r="D220" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="12">
+      <c r="I220" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6629,10 +6647,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6676,28 +6694,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6722,28 +6740,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6831,10 +6849,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="12" t="s">
+      <c r="J230" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6878,28 +6896,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="12">
+      <c r="A232" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="12">
+      <c r="B232" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="12">
+      <c r="C232" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="12">
+      <c r="E232" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="12">
+      <c r="F232" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="12">
+      <c r="G232" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="12">
+      <c r="H232" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6924,28 +6942,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="12">
+      <c r="C234" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="12">
+      <c r="D234" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="12">
+      <c r="I234" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7004,10 +7022,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="12" t="s">
+      <c r="J236" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7051,28 +7069,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="12">
+      <c r="A238" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="12">
+      <c r="C238" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7097,28 +7115,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="12">
+      <c r="C240" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="12">
+      <c r="D240" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="12">
+      <c r="I240" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7235,10 +7253,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="12" t="s">
+      <c r="J244" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7282,28 +7300,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="12">
+      <c r="A246" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="12">
+      <c r="C246" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7328,28 +7346,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="12">
+      <c r="C248" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="12">
+      <c r="D248" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="12">
+      <c r="I248" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7466,10 +7484,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="12" t="s">
+      <c r="J252" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7513,28 +7531,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="12">
+      <c r="A254" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="12">
+      <c r="C254" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7559,28 +7577,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="12">
+      <c r="C256" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="12">
+      <c r="D256" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="12">
+      <c r="I256" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7726,10 +7744,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="12" t="s">
+      <c r="J261" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7773,28 +7791,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="12">
+      <c r="A263" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="12">
+      <c r="B263" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="12">
+      <c r="C263" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="12">
+      <c r="E263" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="12">
+      <c r="F263" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="12">
+      <c r="G263" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="12">
+      <c r="H263" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7819,28 +7837,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="12">
+      <c r="C265" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="12">
+      <c r="D265" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="12">
+      <c r="I265" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7899,10 +7917,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="12" t="s">
+      <c r="J267" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7946,28 +7964,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="12">
+      <c r="A269" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="12">
+      <c r="C269" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="12">
+      <c r="E269" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="12">
+      <c r="F269" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="12">
+      <c r="G269" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="12">
+      <c r="H269" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7992,28 +8010,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="12">
+      <c r="C271" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="12">
+      <c r="D271" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="12">
+      <c r="I271" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8072,10 +8090,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="12" t="s">
+      <c r="J273" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8119,28 +8137,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="12">
+      <c r="A275" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="12">
+      <c r="B275" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="12">
+      <c r="C275" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="12">
+      <c r="E275" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="12">
+      <c r="F275" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="12">
+      <c r="G275" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="12">
+      <c r="H275" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8165,28 +8183,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="12">
+      <c r="C277" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="12">
+      <c r="D277" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="12">
+      <c r="I277" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8274,10 +8292,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="12" t="s">
+      <c r="J280" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8321,28 +8339,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="12">
+      <c r="A282" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="12">
+      <c r="C282" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8367,28 +8385,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="12">
+      <c r="C284" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="12">
+      <c r="D284" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="12">
+      <c r="I284" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8447,10 +8465,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="12" t="s">
+      <c r="J286" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
